--- a/BaiTapLonPython2.xlsx
+++ b/BaiTapLonPython2.xlsx
@@ -12,8 +12,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Diem Mon 2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Diem Mon 3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tong Hop" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sinh Vien Khong Qua Mon" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sinh Vien Qua Mon" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sinh Vien Khong Qua Mon 1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sinh Vien Khong Qua Mon 2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sinh Vien Khong Qua Mon 3" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sinh Vien Qua Mon" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2866,7 +2868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2954,586 +2956,6 @@
         <is>
           <t>Diem Trung Binh</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>189456</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Hoang Minh Giam</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>05/11/2003</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>66PM1</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>7</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J2" t="n">
-        <v>6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.949999999999999</v>
-      </c>
-      <c r="M2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.533333333333333</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>198436</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Nguyen Duc Tuan</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>06/17/2003</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>66PM5</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.949999999999999</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="M3" t="n">
-        <v>6</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>7.399999999999999</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5.083333333333333</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>867686</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Nguyen Minh Thang</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>02/16/2003</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>66PM1</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6.366666666666667</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>656768</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nguyen Thi Ngoc Huyen </t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>06/22/2003</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Nu</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>66PM2</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.449999999999999</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>7.449999999999999</v>
-      </c>
-      <c r="P5" t="n">
-        <v>6.05</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
-        <v>244456</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Phan Gia Huy</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>09/22/2003</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>66PM4</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="M6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.923333333333333</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>233425</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tran Nhat Minh </t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>06/22/2003</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>66PM6</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="M7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.61</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>12</v>
-      </c>
-      <c r="B8" t="n">
-        <v>189898</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Nguyen Thi Ngoc Mai</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10/07/2003</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Nu</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>66PM3</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.725</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="O8" t="n">
-        <v>6.725</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>13</v>
-      </c>
-      <c r="B9" t="n">
-        <v>244556</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hoang Ngoc Minh </t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11/18/2003</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>66PM2</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="J9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>8</v>
-      </c>
-      <c r="L9" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="M9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="P9" t="n">
-        <v>6.206666666666667</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>14</v>
-      </c>
-      <c r="B10" t="n">
-        <v>123456</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Nguyen Long Vu</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>12/09/2003</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>66PM3</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7.725</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="M10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O10" t="n">
-        <v>7.725</v>
-      </c>
-      <c r="P10" t="n">
-        <v>6.013333333333333</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>15</v>
-      </c>
-      <c r="B11" t="n">
-        <v>325213</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nguyen Hai Nam </t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>11/11/2003</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>66PM1</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>8</v>
-      </c>
-      <c r="H11" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7.125</v>
-      </c>
-      <c r="J11" t="n">
-        <v>8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="L11" t="n">
-        <v>7.125</v>
-      </c>
-      <c r="M11" t="n">
-        <v>8</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="P11" t="n">
-        <v>6.016666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -3639,6 +3061,846 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>198436</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Nguyen Duc Tuan</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>06/17/2003</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>66PM5</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.949999999999999</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.083333333333333</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>656768</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nguyen Thi Ngoc Huyen </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>06/22/2003</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Nu</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>66PM2</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.449999999999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7.449999999999999</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>244456</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Phan Gia Huy</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>09/22/2003</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>66PM4</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.923333333333333</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>189898</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Nguyen Thi Ngoc Mai</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10/07/2003</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Nu</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>66PM3</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B6" t="n">
+        <v>123456</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Nguyen Long Vu</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12/09/2003</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>66PM3</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.725</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7.725</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.013333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ma Sinh Vien</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Ho Ten</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ngay Sinh</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Gioi Tinh</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lop Quan Ly</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Diem Qua Trinh Mon 1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Diem Cuoi Ky Mon 1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Diem Tong Ket Mon 1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Diem Qua Trinh Mon 2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Diem Cuoi Ky Mon 2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Diem Tong Ket Mon 2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Diem Qua Trinh Mon 3</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Diem Cuoi Ky Mon 3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Diem Tong Ket Mon 3</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Diem Trung Binh</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>189456</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Hoang Minh Giam</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>05/11/2003</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>66PM1</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.949999999999999</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.533333333333333</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>867686</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Nguyen Minh Thang</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>02/16/2003</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>66PM1</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6.366666666666667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>244456</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Phan Gia Huy</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>09/22/2003</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>66PM4</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.923333333333333</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>233425</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tran Nhat Minh </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>06/22/2003</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>66PM6</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>244556</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hoang Ngoc Minh </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11/18/2003</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>66PM2</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.206666666666667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>325213</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nguyen Hai Nam </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11/11/2003</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>66PM1</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.125</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7.125</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.016666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ma Sinh Vien</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Ho Ten</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ngay Sinh</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Gioi Tinh</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lop Quan Ly</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Diem Qua Trinh Mon 1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Diem Cuoi Ky Mon 1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Diem Tong Ket Mon 1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Diem Qua Trinh Mon 2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Diem Cuoi Ky Mon 2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Diem Tong Ket Mon 2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Diem Qua Trinh Mon 3</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Diem Cuoi Ky Mon 3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Diem Tong Ket Mon 3</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Diem Trung Binh</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>3</v>
       </c>
       <c r="B2" t="n">
